--- a/Data Files/Input Validation/Auto_test.xlsx
+++ b/Data Files/Input Validation/Auto_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t xml:space="preserve">contractNo</t>
   </si>
@@ -160,7 +160,7 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">ZXv13fas</t>
+    <t xml:space="preserve">Auto_0009 </t>
   </si>
   <si>
     <t xml:space="preserve">2023-08-16</t>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">0105556078229</t>
   </si>
   <si>
-    <t xml:space="preserve">V</t>
+    <t xml:space="preserve">O</t>
   </si>
   <si>
     <t xml:space="preserve">1721000011382</t>
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t xml:space="preserve">ดั่งใจหวัง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O</t>
   </si>
   <si>
     <t xml:space="preserve">888/77</t>
@@ -323,7 +320,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -334,6 +331,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -367,8 +368,8 @@
   </sheetPr>
   <dimension ref="A1:AY996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -566,7 +567,7 @@
       <c r="AY1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -585,7 +586,7 @@
         <v>51</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="I2" s="2"/>
@@ -622,19 +623,19 @@
         <v>48</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
@@ -642,42 +643,42 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
-      <c r="AP2" s="4" t="s">
+      <c r="AP2" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
@@ -950,12 +951,12 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1002,11 +1003,11 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1054,11 +1055,11 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1106,11 +1107,11 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="6"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1160,7 +1161,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>

--- a/Data Files/Input Validation/Auto_test.xlsx
+++ b/Data Files/Input Validation/Auto_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">contractNo</t>
   </si>
@@ -160,79 +160,7 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">Auto_0009 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0105556078229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1721000011382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สมหมาย</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ดั่งใจหวัง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">888/77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">หมู่บ้านรื่นรนย์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ตำบลหนองใหญ่</t>
-  </si>
-  <si>
-    <t xml:space="preserve">อำเภอหนองใหญ่</t>
-  </si>
-  <si>
-    <t xml:space="preserve">จังหวัดนนทบุรี</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U0105556078229000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS9</t>
+    <t xml:space="preserve">5</t>
   </si>
 </sst>
 </file>
@@ -320,7 +248,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -335,14 +263,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -366,10 +286,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AY996"/>
+  <dimension ref="A1:AY1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -567,119 +487,54 @@
       <c r="AY1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
-      <c r="AF2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
-      <c r="AP2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
@@ -847,12 +702,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -900,11 +753,12 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="4"/>
       <c r="F7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -951,12 +805,12 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
-      <c r="B8" s="6"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="4"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1003,11 +857,11 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="4"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1055,11 +909,11 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="4"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1107,11 +961,12 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1161,8 +1016,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1215,6 +1069,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1368,7 +1223,7 @@
       <c r="AX15" s="2"/>
       <c r="AY15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -53308,59 +53163,7 @@
       <c r="AX995" s="2"/>
       <c r="AY995" s="2"/>
     </row>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A996" s="2"/>
-      <c r="B996" s="2"/>
-      <c r="C996" s="2"/>
-      <c r="D996" s="2"/>
-      <c r="E996" s="2"/>
-      <c r="F996" s="2"/>
-      <c r="G996" s="2"/>
-      <c r="H996" s="2"/>
-      <c r="I996" s="2"/>
-      <c r="J996" s="2"/>
-      <c r="K996" s="2"/>
-      <c r="L996" s="2"/>
-      <c r="M996" s="2"/>
-      <c r="N996" s="2"/>
-      <c r="O996" s="2"/>
-      <c r="P996" s="2"/>
-      <c r="Q996" s="2"/>
-      <c r="R996" s="2"/>
-      <c r="S996" s="2"/>
-      <c r="T996" s="2"/>
-      <c r="U996" s="2"/>
-      <c r="V996" s="2"/>
-      <c r="W996" s="2"/>
-      <c r="X996" s="2"/>
-      <c r="Y996" s="2"/>
-      <c r="Z996" s="2"/>
-      <c r="AA996" s="2"/>
-      <c r="AB996" s="2"/>
-      <c r="AC996" s="2"/>
-      <c r="AD996" s="2"/>
-      <c r="AE996" s="2"/>
-      <c r="AF996" s="2"/>
-      <c r="AG996" s="2"/>
-      <c r="AH996" s="2"/>
-      <c r="AI996" s="2"/>
-      <c r="AJ996" s="2"/>
-      <c r="AK996" s="2"/>
-      <c r="AL996" s="2"/>
-      <c r="AM996" s="2"/>
-      <c r="AN996" s="2"/>
-      <c r="AO996" s="2"/>
-      <c r="AP996" s="2"/>
-      <c r="AQ996" s="2"/>
-      <c r="AR996" s="2"/>
-      <c r="AS996" s="2"/>
-      <c r="AT996" s="2"/>
-      <c r="AU996" s="2"/>
-      <c r="AV996" s="2"/>
-      <c r="AW996" s="2"/>
-      <c r="AX996" s="2"/>
-      <c r="AY996" s="2"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
